--- a/2_Stock_Analysis/Resource/google_trends_industry.xlsx
+++ b/2_Stock_Analysis/Resource/google_trends_industry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/2_Stock_Analysis/Resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1905002-2287-D445-8D82-6E7CC8FA8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB25BA58-6328-2343-A76D-07A09F1BCE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="2017">
   <si>
     <t>STOCK_SYMBOL</t>
   </si>
@@ -6074,6 +6074,41 @@
   </si>
   <si>
     <t>金融 股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK_TYPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>台股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>美股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸股</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿tw</t>
+  </si>
+  <si>
+    <t>﻿tw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMOVE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6081,7 +6116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6240,6 +6275,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -6667,11 +6709,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7029,448 +7074,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B966"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D7" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D9" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D11" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C12" t="s">
         <v>151</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D12" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C13" t="s">
         <v>1987</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D13" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
         <v>1986</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D14" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C15" t="s">
         <v>312</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D15" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C16" t="s">
         <v>315</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D16" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C17" t="s">
         <v>348</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D17" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C18" t="s">
         <v>348</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D18" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
         <v>415</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D19" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="s">
         <v>430</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D20" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C21" t="s">
         <v>443</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D21" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C22" t="s">
         <v>502</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D22" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C23" t="s">
         <v>533</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D23" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
         <v>558</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D24" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C25" t="s">
         <v>561</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D25" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C26" t="s">
         <v>561</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D26" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C28" t="s">
         <v>1999</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D28" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
         <v>584</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D29" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C30" t="s">
         <v>613</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D30" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C31" t="s">
         <v>730</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D31" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C32" t="s">
         <v>923</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D32" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C33" t="s">
         <v>942</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D33" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
         <v>969</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D34" t="s">
         <v>2007</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1">
-      <c r="A935" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1">
-      <c r="A954" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1">
-      <c r="A964" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1">
-      <c r="A965" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -7483,8 +7570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F44D0C-56B4-9D42-A354-C6BE1CB6E784}">
   <dimension ref="A1:P965"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
